--- a/mise en ordre menu examens .xlsx
+++ b/mise en ordre menu examens .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athan\Desktop\Bionase_LBM_BD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4121AA08-B2A7-4AD3-A97E-46403A38D925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD32148F-664C-496A-8337-6DD38F04411B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5B8561A4-81A6-4D5C-AF43-4D4CD86BF821}"/>
   </bookViews>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,31 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
-  <si>
-    <t>VS : 1ère HEURE</t>
-  </si>
-  <si>
-    <t>Potassium (k+)</t>
-  </si>
-  <si>
-    <t>Sodium (Na+)</t>
-  </si>
-  <si>
-    <t>Chlore (Cl-)</t>
-  </si>
-  <si>
-    <t>Magnésium (Mg2+)</t>
-  </si>
-  <si>
-    <t>Calcium (Ca2+)</t>
-  </si>
-  <si>
-    <t>Reserve Alcalin</t>
-  </si>
-  <si>
-    <t>Protides Totaux</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>CRP</t>
   </si>
@@ -68,30 +42,6 @@
     <t>Triglycerides</t>
   </si>
   <si>
-    <t>Cholestérol Total</t>
-  </si>
-  <si>
-    <t>Cholestérol HDL</t>
-  </si>
-  <si>
-    <t>Cholestérol LDL</t>
-  </si>
-  <si>
-    <t>Lipide Totale</t>
-  </si>
-  <si>
-    <t>Transaminasémie GOT</t>
-  </si>
-  <si>
-    <t>Transaminases TGP</t>
-  </si>
-  <si>
-    <t>Bilirubine Totale</t>
-  </si>
-  <si>
-    <t>Bilirubine conjuguée</t>
-  </si>
-  <si>
     <t>AgHBS</t>
   </si>
   <si>
@@ -110,63 +60,21 @@
     <t>ACHVC</t>
   </si>
   <si>
-    <t>HAV (IgM)</t>
-  </si>
-  <si>
-    <t>Gamma-GT</t>
-  </si>
-  <si>
-    <t>Phosphatase Alcaline</t>
-  </si>
-  <si>
-    <t>Créatinine</t>
-  </si>
-  <si>
     <t>Urée</t>
   </si>
   <si>
     <t>Albuminurie</t>
   </si>
   <si>
-    <t>Protéinurie</t>
-  </si>
-  <si>
-    <t>Protéinurie 24h</t>
-  </si>
-  <si>
     <t>DFG</t>
   </si>
   <si>
     <t>Ionogramme Urinaire</t>
   </si>
   <si>
-    <t>Clairance de créatininurie</t>
-  </si>
-  <si>
-    <t>Electrophorèse des Proteines Sérique</t>
-  </si>
-  <si>
     <t>Albumine</t>
   </si>
   <si>
-    <t>Alpha I</t>
-  </si>
-  <si>
-    <t>Alpha II</t>
-  </si>
-  <si>
-    <t>Béta</t>
-  </si>
-  <si>
-    <t>Gamma</t>
-  </si>
-  <si>
-    <t>Glycémie à Jeûn</t>
-  </si>
-  <si>
-    <t>Glycémie Post Prandiale</t>
-  </si>
-  <si>
     <t>HBA1C</t>
   </si>
   <si>
@@ -185,39 +93,21 @@
     <t>TCK</t>
   </si>
   <si>
-    <t>Fibrinémie</t>
-  </si>
-  <si>
     <t>Taux de Prothrombine</t>
   </si>
   <si>
     <t>INR</t>
   </si>
   <si>
-    <t>Widal et Félix</t>
-  </si>
-  <si>
     <t>Toxoplasmose</t>
   </si>
   <si>
-    <t>Rubéole</t>
-  </si>
-  <si>
-    <t>chlamydia</t>
-  </si>
-  <si>
     <t>Mycoplasme</t>
   </si>
   <si>
     <t>Bilharziose</t>
   </si>
   <si>
-    <t>Waaler Rose</t>
-  </si>
-  <si>
-    <t>BW</t>
-  </si>
-  <si>
     <t>ASLO</t>
   </si>
   <si>
@@ -239,33 +129,12 @@
     <t>Estradiol</t>
   </si>
   <si>
-    <t>Progestérone</t>
-  </si>
-  <si>
-    <t>Prolactinémie</t>
-  </si>
-  <si>
-    <t>LH-RH </t>
-  </si>
-  <si>
     <t>Cortisol</t>
   </si>
   <si>
     <t>FSH</t>
   </si>
   <si>
-    <t>Testostérone</t>
-  </si>
-  <si>
-    <t>TSH_us</t>
-  </si>
-  <si>
-    <t>Beta HCG (sang)</t>
-  </si>
-  <si>
-    <t>Beta HCG (urine)</t>
-  </si>
-  <si>
     <t>LDH</t>
   </si>
   <si>
@@ -275,73 +144,145 @@
     <t>CPK-mb</t>
   </si>
   <si>
-    <t>Myoglobine</t>
-  </si>
-  <si>
-    <t>Troponime</t>
-  </si>
-  <si>
-    <t>bilan enzymatique musculaires</t>
-  </si>
-  <si>
-    <t>bilan hormonal</t>
-  </si>
-  <si>
-    <t>bilan sérologie</t>
-  </si>
-  <si>
-    <t>bilan Immuno-hematologique</t>
-  </si>
-  <si>
-    <t>bilan glycemique</t>
-  </si>
-  <si>
-    <t>bilan renal</t>
-  </si>
-  <si>
-    <t>bilan spermiologique</t>
-  </si>
-  <si>
-    <t>bilan cytobacteriologie</t>
-  </si>
-  <si>
-    <t>bilan hepatique et bilaire</t>
-  </si>
-  <si>
-    <t>bilan lipidique</t>
-  </si>
-  <si>
-    <t>ionogramme</t>
-  </si>
-  <si>
-    <t>inflammation</t>
-  </si>
-  <si>
-    <t>VS : 2ième HEURE</t>
-  </si>
-  <si>
     <t>ECBU</t>
   </si>
   <si>
     <t>Coproculture</t>
   </si>
   <si>
-    <t xml:space="preserve">LCR/Exudat </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PU </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PV </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spermoculture </t>
-  </si>
-  <si>
     <t>Spermocytogramme</t>
   </si>
   <si>
     <t>Spermogramme</t>
+  </si>
+  <si>
+    <t>LCR</t>
+  </si>
+  <si>
+    <t>PU</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>Spermoculture</t>
+  </si>
+  <si>
+    <t>Glycemie</t>
+  </si>
+  <si>
+    <t>Glycemie Post P.</t>
+  </si>
+  <si>
+    <t>Bilirubine Tot.</t>
+  </si>
+  <si>
+    <t>Bilirubine Conj.</t>
+  </si>
+  <si>
+    <t>GAMMA-GT</t>
+  </si>
+  <si>
+    <t>HAV(IgM)</t>
+  </si>
+  <si>
+    <t>Phosphat.Alc</t>
+  </si>
+  <si>
+    <t>Transaminases</t>
+  </si>
+  <si>
+    <t>Beta HCG(sg)</t>
+  </si>
+  <si>
+    <t>Beta HCG(ur)</t>
+  </si>
+  <si>
+    <t>LH-RH</t>
+  </si>
+  <si>
+    <t>Progesterone</t>
+  </si>
+  <si>
+    <t>Prolactinemie</t>
+  </si>
+  <si>
+    <t>Fibrinemie</t>
+  </si>
+  <si>
+    <t>Cholesterol HDL</t>
+  </si>
+  <si>
+    <t>Cholesterol LDL</t>
+  </si>
+  <si>
+    <t>Cholesterol Total</t>
+  </si>
+  <si>
+    <t>Lipide totale</t>
+  </si>
+  <si>
+    <t>Acide urique</t>
+  </si>
+  <si>
+    <t>Clairance de creatininurie</t>
+  </si>
+  <si>
+    <t>Creatinine</t>
+  </si>
+  <si>
+    <t>Electrophorèse.Prot.Sq</t>
+  </si>
+  <si>
+    <t>Proteinurie</t>
+  </si>
+  <si>
+    <t>Proteinurie 24h</t>
+  </si>
+  <si>
+    <t>BW(VDRL-TPHA)</t>
+  </si>
+  <si>
+    <t>Chlamydia</t>
+  </si>
+  <si>
+    <t>Rubeole</t>
+  </si>
+  <si>
+    <t>Widal et Felix</t>
+  </si>
+  <si>
+    <t>Waaler-Rose</t>
+  </si>
+  <si>
+    <t>Vit.Sediment.(VS)</t>
+  </si>
+  <si>
+    <t>Fact.Rhumat.(FR)</t>
+  </si>
+  <si>
+    <t>Ionogramme Sg</t>
+  </si>
+  <si>
+    <t>Calcium(Ca2+)</t>
+  </si>
+  <si>
+    <t>Magnesium(Mg2+)</t>
+  </si>
+  <si>
+    <t>Potassium(k+)</t>
+  </si>
+  <si>
+    <t>Protid.Tot.</t>
+  </si>
+  <si>
+    <t>Res.Alcal.</t>
+  </si>
+  <si>
+    <t>Goutte Epaisse</t>
+  </si>
+  <si>
+    <t>QBC</t>
   </si>
 </sst>
 </file>
@@ -710,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF33294E-4ED0-4924-8436-6915ADCEAD52}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,354 +674,518 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>81</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>89</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>82</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>84</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>90</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>86</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="C9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="J11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="1" t="s">
+    </row>
+    <row r="63" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M12" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="1" t="s">
+    </row>
+    <row r="72" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M1:M12">
     <sortCondition ref="M1:M12"/>
   </sortState>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="../Bionase_LBM/lcr_exudat.html" xr:uid="{FA9C29B3-9DCB-43C9-9EC5-03CC92303215}"/>
-    <hyperlink ref="E1" r:id="rId2" display="../Bionase_LBM/spermocytogramme.html" xr:uid="{8BD93FDD-50B3-48B3-BB12-AE12DCF7153B}"/>
-    <hyperlink ref="E2" r:id="rId3" display="../Bionase_LBM/spermogramme.html" xr:uid="{0106DBBA-323A-4D43-8665-DBD3FDB28017}"/>
-    <hyperlink ref="D6" r:id="rId4" display="../Bionase_LBM/spermoculture.html" xr:uid="{BE584ED4-A55A-482F-B7E4-61C22B8B0812}"/>
-    <hyperlink ref="D4" r:id="rId5" display="../Bionase_LBM/pu.html" xr:uid="{5F5C675C-C522-4A4A-AA50-CA10839BB450}"/>
-    <hyperlink ref="D5" r:id="rId6" display="../Bionase_LBM/pv.html" xr:uid="{F921762D-CF3B-4767-9BE1-B24EF0A14682}"/>
-    <hyperlink ref="D2" r:id="rId7" display="../Bionase_LBM/coproculture.html" xr:uid="{B4B21E95-6767-47AF-94D9-5D2B69E7945F}"/>
-    <hyperlink ref="D1" r:id="rId8" display="../Bionase_LBM/ECBU.html" xr:uid="{A8FEFB97-E92C-4FA7-9EAF-1E90D4E17C8B}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>